--- a/tests/mode1/randomPanel2/Mild_vs_Severe/MergedResult/SavedModel_summary.xlsx
+++ b/tests/mode1/randomPanel2/Mild_vs_Severe/MergedResult/SavedModel_summary.xlsx
@@ -1006,7 +1006,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Compound_35</t>
+          <t>Compound_19</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -1039,7 +1039,7 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Compound_19</t>
+          <t>Compound_35</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
